--- a/instances/C10P5T5D15/C10P5T5D15.xlsx
+++ b/instances/C10P5T5D15/C10P5T5D15.xlsx
@@ -1,21 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unisabanaedu-my.sharepoint.com/personal/carlosrodsal_unisabana_edu_co/Documents/MGOP/drones_lrpd/src/instances/C10P5T5D15/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="72" documentId="11_877C2B7CB6B9D10D0D6F26561D37C2462D7B4D40" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1851643A-92FD-4169-A5A9-5D9F382F6EFD}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="PARAMETROS"/>
-    <sheet r:id="rId2" sheetId="2" name="DEMANDA"/>
-    <sheet r:id="rId3" sheetId="3" name="COORDS"/>
-    <sheet r:id="rId4" sheetId="4" name="MANHATTAN"/>
-    <sheet r:id="rId5" sheetId="5" name="TIEMPOS_CAM"/>
-    <sheet r:id="rId6" sheetId="6" name="TIEMPOS_DRON"/>
-    <sheet r:id="rId7" sheetId="7" name="EUCLI"/>
+    <sheet name="PARAMETROS" sheetId="1" r:id="rId1"/>
+    <sheet name="DEMANDA" sheetId="2" r:id="rId2"/>
+    <sheet name="COORDS" sheetId="3" r:id="rId3"/>
+    <sheet name="MANHATTAN" sheetId="4" r:id="rId4"/>
+    <sheet name="TIEMPOS_CAM" sheetId="5" r:id="rId5"/>
+    <sheet name="TIEMPOS_DRON" sheetId="6" r:id="rId6"/>
+    <sheet name="EUCLI" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -121,8 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,56 +205,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -247,10 +254,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -288,71 +295,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -380,7 +387,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -403,11 +410,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -416,13 +423,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -432,7 +439,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -441,7 +448,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -450,7 +457,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -458,10 +465,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -526,7 +533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -536,23 +543,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="3" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +558,7 @@
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="11"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
@@ -594,7 +590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -604,7 +600,6 @@
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
       <c r="E2" s="3">
         <v>5</v>
       </c>
@@ -636,8 +631,8 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3">
@@ -646,20 +641,9 @@
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="9" t="s">
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
@@ -668,20 +652,9 @@
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="9" t="s">
+    </row>
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
@@ -690,20 +663,9 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="9" t="s">
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3">
@@ -712,235 +674,91 @@
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="9" t="s">
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="9" t="s">
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="9" t="s">
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9"/>
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="9" t="s">
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9"/>
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="9" t="s">
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9"/>
       <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="9" t="s">
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="9"/>
       <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="9" t="s">
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9"/>
       <c r="C13" s="3">
         <v>12</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="9" t="s">
+    </row>
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9"/>
       <c r="C14" s="3">
         <v>13</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="9" t="s">
+    </row>
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="9"/>
       <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="9" t="s">
+    </row>
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="9"/>
       <c r="C16" s="3">
         <v>15</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="9" t="s">
+    </row>
+    <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -948,7 +766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -958,11 +776,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -970,7 +788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -978,120 +796,120 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="3">
@@ -1104,7 +922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1114,12 +932,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1141,62 +958,62 @@
         <v>-74.0367819196792</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>4.856197</v>
+        <v>4.8561969999999999</v>
       </c>
       <c r="C3" s="4">
-        <v>-74.058931</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>-74.058931000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>4.884211</v>
+        <v>4.8842109999999996</v>
       </c>
       <c r="C4" s="4">
-        <v>-74.034909</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>-74.034908999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>4.860628</v>
+        <v>4.8606280000000002</v>
       </c>
       <c r="C5" s="4">
-        <v>-74.062514</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>-74.062513999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>4.865161</v>
+        <v>4.8651609999999996</v>
       </c>
       <c r="C6" s="4">
-        <v>-74.056756</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>-74.056755999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>4.862667</v>
+        <v>4.8626670000000001</v>
       </c>
       <c r="C7" s="4">
-        <v>-74.055305</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>-74.055305000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1204,21 +1021,21 @@
         <v>4.8685076</v>
       </c>
       <c r="C8" s="4">
-        <v>-74.050176</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>-74.050175999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>4.8493992</v>
+        <v>4.8493991999999997</v>
       </c>
       <c r="C9" s="4">
-        <v>-74.0578584</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>-74.057858400000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1226,10 +1043,10 @@
         <v>4.8538302</v>
       </c>
       <c r="C10" s="4">
-        <v>-74.0472613</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>-74.047261300000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1240,70 +1057,70 @@
         <v>-74.0668656</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>4.8636496</v>
+        <v>4.8636495999999996</v>
       </c>
       <c r="C12" s="4">
-        <v>-74.0578618</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>-74.057861799999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>4.8611748</v>
+        <v>4.8611747999999997</v>
       </c>
       <c r="C13" s="4">
-        <v>-74.0500399</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>-74.050039900000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>4.8740067</v>
+        <v>4.8740066999999998</v>
       </c>
       <c r="C14" s="4">
-        <v>-74.0372525</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>-74.037252499999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>4.8804033</v>
+        <v>4.8804033000000002</v>
       </c>
       <c r="C15" s="4">
-        <v>-74.0424155</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <v>-74.042415500000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>4.8571233</v>
+        <v>4.8571232999999996</v>
       </c>
       <c r="C16" s="4">
-        <v>-74.0495759</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>-74.049575899999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>4.8550932</v>
+        <v>4.8550931999999998</v>
       </c>
       <c r="C17" s="4">
-        <v>-74.0542723</v>
+        <v>-74.054272299999994</v>
       </c>
     </row>
   </sheetData>
@@ -1312,37 +1129,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="8"/>
+    <row r="1" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1392,7 +1197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1409,48 +1214,48 @@
         <v>1.45</v>
       </c>
       <c r="F2" s="4">
-        <v>0.237</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="G2" s="4">
         <v>3.597</v>
       </c>
       <c r="H2" s="4">
-        <v>2.358</v>
+        <v>2.3580000000000001</v>
       </c>
       <c r="I2" s="4">
-        <v>1.368</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="J2" s="4">
         <v>1.821</v>
       </c>
       <c r="K2" s="4">
-        <v>2.861</v>
+        <v>2.8610000000000002</v>
       </c>
       <c r="L2" s="4">
-        <v>1.148</v>
+        <v>1.1479999999999999</v>
       </c>
       <c r="M2" s="4">
-        <v>2.503</v>
+        <v>2.5030000000000001</v>
       </c>
       <c r="N2" s="4">
-        <v>4.205</v>
+        <v>4.2050000000000001</v>
       </c>
       <c r="O2" s="4">
-        <v>4.525</v>
+        <v>4.5250000000000004</v>
       </c>
       <c r="P2" s="4">
         <v>1.659</v>
       </c>
       <c r="Q2" s="4">
-        <v>0.884</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>10.319</v>
+        <v>10.319000000000001</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -1459,54 +1264,54 @@
         <v>7.81</v>
       </c>
       <c r="E3" s="4">
-        <v>8.949</v>
+        <v>8.9489999999999998</v>
       </c>
       <c r="F3" s="4">
         <v>10.103</v>
       </c>
       <c r="G3" s="4">
-        <v>7.131</v>
+        <v>7.1310000000000002</v>
       </c>
       <c r="H3" s="4">
-        <v>8.482</v>
+        <v>8.4819999999999993</v>
       </c>
       <c r="I3" s="4">
-        <v>10.485</v>
+        <v>10.484999999999999</v>
       </c>
       <c r="J3" s="4">
-        <v>9.326</v>
+        <v>9.3260000000000005</v>
       </c>
       <c r="K3" s="4">
-        <v>10.678</v>
+        <v>10.678000000000001</v>
       </c>
       <c r="L3" s="4">
-        <v>9.215</v>
+        <v>9.2149999999999999</v>
       </c>
       <c r="M3" s="4">
-        <v>8.485</v>
+        <v>8.4849999999999994</v>
       </c>
       <c r="N3" s="4">
-        <v>7.739</v>
+        <v>7.7389999999999999</v>
       </c>
       <c r="O3" s="4">
-        <v>12.392</v>
+        <v>12.391999999999999</v>
       </c>
       <c r="P3" s="4">
-        <v>8.611</v>
+        <v>8.6110000000000007</v>
       </c>
       <c r="Q3" s="4">
-        <v>9.527</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+        <v>9.5269999999999992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>3.297</v>
+        <v>3.2970000000000002</v>
       </c>
       <c r="C4" s="4">
-        <v>8.544</v>
+        <v>8.5440000000000005</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1518,7 +1323,7 @@
         <v>3.081</v>
       </c>
       <c r="G4" s="4">
-        <v>1.558</v>
+        <v>1.5580000000000001</v>
       </c>
       <c r="H4" s="4">
         <v>1.96</v>
@@ -1527,19 +1332,19 @@
         <v>3.464</v>
       </c>
       <c r="J4" s="4">
-        <v>1.741</v>
+        <v>1.7410000000000001</v>
       </c>
       <c r="K4" s="4">
-        <v>4.156</v>
+        <v>4.1559999999999997</v>
       </c>
       <c r="L4" s="4">
         <v>2.694</v>
       </c>
       <c r="M4" s="4">
-        <v>1.364</v>
+        <v>1.3640000000000001</v>
       </c>
       <c r="N4" s="4">
-        <v>2.167</v>
+        <v>2.1669999999999998</v>
       </c>
       <c r="O4" s="4">
         <v>4.532</v>
@@ -1548,54 +1353,54 @@
         <v>1.589</v>
       </c>
       <c r="Q4" s="4">
-        <v>2.505</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+        <v>2.5049999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>1.152</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="C5" s="4">
-        <v>10.062</v>
+        <v>10.061999999999999</v>
       </c>
       <c r="D5" s="4">
-        <v>2.236</v>
+        <v>2.2360000000000002</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>0.936</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="G5" s="4">
-        <v>3.076</v>
+        <v>3.0760000000000001</v>
       </c>
       <c r="H5" s="4">
-        <v>1.507</v>
+        <v>1.5069999999999999</v>
       </c>
       <c r="I5" s="4">
-        <v>2.787</v>
+        <v>2.7869999999999999</v>
       </c>
       <c r="J5" s="4">
-        <v>2.813</v>
+        <v>2.8130000000000002</v>
       </c>
       <c r="K5" s="4">
         <v>1.974</v>
       </c>
       <c r="L5" s="4">
-        <v>0.267</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="M5" s="4">
         <v>2.09</v>
       </c>
       <c r="N5" s="4">
-        <v>3.684</v>
+        <v>3.6840000000000002</v>
       </c>
       <c r="O5" s="4">
-        <v>3.075</v>
+        <v>3.0750000000000002</v>
       </c>
       <c r="P5" s="4">
         <v>2.08</v>
@@ -1604,30 +1409,30 @@
         <v>1.875</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>0.417</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="C6" s="4">
-        <v>10.694</v>
+        <v>10.694000000000001</v>
       </c>
       <c r="D6" s="4">
-        <v>2.869</v>
+        <v>2.8690000000000002</v>
       </c>
       <c r="E6" s="4">
-        <v>1.561</v>
+        <v>1.5609999999999999</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>3.709</v>
+        <v>3.7090000000000001</v>
       </c>
       <c r="H6" s="4">
-        <v>2.469</v>
+        <v>2.4689999999999999</v>
       </c>
       <c r="I6" s="4">
         <v>1.923</v>
@@ -1636,142 +1441,142 @@
         <v>2.266</v>
       </c>
       <c r="K6" s="4">
-        <v>2.624</v>
+        <v>2.6240000000000001</v>
       </c>
       <c r="L6" s="4">
-        <v>0.911</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="M6" s="4">
-        <v>2.622</v>
+        <v>2.6219999999999999</v>
       </c>
       <c r="N6" s="4">
-        <v>4.317</v>
+        <v>4.3170000000000002</v>
       </c>
       <c r="O6" s="4">
-        <v>4.155</v>
+        <v>4.1550000000000002</v>
       </c>
       <c r="P6" s="4">
-        <v>1.771</v>
+        <v>1.7709999999999999</v>
       </c>
       <c r="Q6" s="4">
         <v>1.329</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>5.799</v>
+        <v>5.7990000000000004</v>
       </c>
       <c r="C7" s="4">
-        <v>9.819</v>
+        <v>9.8190000000000008</v>
       </c>
       <c r="D7" s="4">
-        <v>3.291</v>
+        <v>3.2909999999999999</v>
       </c>
       <c r="E7" s="4">
-        <v>4.429</v>
+        <v>4.4290000000000003</v>
       </c>
       <c r="F7" s="4">
-        <v>5.584</v>
+        <v>5.5839999999999996</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>4.047</v>
+        <v>4.0469999999999997</v>
       </c>
       <c r="I7" s="4">
-        <v>5.966</v>
+        <v>5.9660000000000002</v>
       </c>
       <c r="J7" s="4">
         <v>4.806</v>
       </c>
       <c r="K7" s="4">
-        <v>6.243</v>
+        <v>6.2430000000000003</v>
       </c>
       <c r="L7" s="4">
-        <v>4.696</v>
+        <v>4.6959999999999997</v>
       </c>
       <c r="M7" s="4">
-        <v>3.966</v>
+        <v>3.9660000000000002</v>
       </c>
       <c r="N7" s="4">
-        <v>0.858</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="O7" s="4">
         <v>5.51</v>
       </c>
       <c r="P7" s="4">
-        <v>4.091</v>
+        <v>4.0910000000000002</v>
       </c>
       <c r="Q7" s="4">
-        <v>5.007</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+        <v>5.0069999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>2.616</v>
+        <v>2.6160000000000001</v>
       </c>
       <c r="C8" s="4">
-        <v>9.299</v>
+        <v>9.2989999999999995</v>
       </c>
       <c r="D8" s="4">
         <v>1.474</v>
       </c>
       <c r="E8" s="4">
-        <v>1.475</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="F8" s="4">
-        <v>2.401</v>
+        <v>2.4009999999999998</v>
       </c>
       <c r="G8" s="4">
-        <v>2.313</v>
+        <v>2.3130000000000002</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>3.596</v>
+        <v>3.5960000000000001</v>
       </c>
       <c r="J8" s="4">
-        <v>2.989</v>
+        <v>2.9889999999999999</v>
       </c>
       <c r="K8" s="4">
         <v>2.899</v>
       </c>
       <c r="L8" s="4">
-        <v>1.741</v>
+        <v>1.7410000000000001</v>
       </c>
       <c r="M8" s="4">
         <v>1.63</v>
       </c>
       <c r="N8" s="4">
-        <v>2.922</v>
+        <v>2.9220000000000002</v>
       </c>
       <c r="O8" s="4">
-        <v>3.553</v>
+        <v>3.5529999999999999</v>
       </c>
       <c r="P8" s="4">
-        <v>2.223</v>
+        <v>2.2229999999999999</v>
       </c>
       <c r="Q8" s="4">
-        <v>3.139</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+        <v>3.1389999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>0.885</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="C9" s="4">
-        <v>9.873</v>
+        <v>9.8729999999999993</v>
       </c>
       <c r="D9" s="4">
         <v>2.048</v>
@@ -1783,7 +1588,7 @@
         <v>0.67</v>
       </c>
       <c r="G9" s="4">
-        <v>2.888</v>
+        <v>2.8879999999999999</v>
       </c>
       <c r="H9" s="4">
         <v>1.649</v>
@@ -1792,10 +1597,10 @@
         <v>2.52</v>
       </c>
       <c r="J9" s="4">
-        <v>2.546</v>
+        <v>2.5459999999999998</v>
       </c>
       <c r="K9" s="4">
-        <v>2.144</v>
+        <v>2.1440000000000001</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -1807,60 +1612,60 @@
         <v>3.496</v>
       </c>
       <c r="O9" s="4">
-        <v>3.245</v>
+        <v>3.2450000000000001</v>
       </c>
       <c r="P9" s="4">
-        <v>1.813</v>
+        <v>1.8129999999999999</v>
       </c>
       <c r="Q9" s="4">
-        <v>1.608</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+        <v>1.6080000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>2.795</v>
+        <v>2.7949999999999999</v>
       </c>
       <c r="C10" s="4">
-        <v>11.495</v>
+        <v>11.494999999999999</v>
       </c>
       <c r="D10" s="4">
         <v>3.67</v>
       </c>
       <c r="E10" s="4">
-        <v>2.602</v>
+        <v>2.6019999999999999</v>
       </c>
       <c r="F10" s="4">
-        <v>3.023</v>
+        <v>3.0230000000000001</v>
       </c>
       <c r="G10" s="4">
-        <v>4.509</v>
+        <v>4.5090000000000003</v>
       </c>
       <c r="H10" s="4">
         <v>2.899</v>
       </c>
       <c r="I10" s="4">
-        <v>4.009</v>
+        <v>4.0090000000000003</v>
       </c>
       <c r="J10" s="4">
-        <v>5.586</v>
+        <v>5.5860000000000003</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="4">
-        <v>2.209</v>
+        <v>2.2090000000000001</v>
       </c>
       <c r="M10" s="4">
-        <v>3.846</v>
+        <v>3.8460000000000001</v>
       </c>
       <c r="N10" s="4">
         <v>5.117</v>
       </c>
       <c r="O10" s="4">
-        <v>4.588</v>
+        <v>4.5880000000000001</v>
       </c>
       <c r="P10" s="4">
         <v>3.948</v>
@@ -1869,7 +1674,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1877,22 +1682,22 @@
         <v>1.341</v>
       </c>
       <c r="C11" s="4">
-        <v>11.014</v>
+        <v>11.013999999999999</v>
       </c>
       <c r="D11" s="4">
         <v>3.044</v>
       </c>
       <c r="E11" s="4">
-        <v>2.224</v>
+        <v>2.2240000000000002</v>
       </c>
       <c r="F11" s="4">
         <v>1.694</v>
       </c>
       <c r="G11" s="4">
-        <v>4.028</v>
+        <v>4.0279999999999996</v>
       </c>
       <c r="H11" s="4">
-        <v>2.792</v>
+        <v>2.7919999999999998</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -1901,48 +1706,48 @@
         <v>1.708</v>
       </c>
       <c r="K11" s="4">
-        <v>3.888</v>
+        <v>3.8879999999999999</v>
       </c>
       <c r="L11" s="4">
-        <v>2.491</v>
+        <v>2.4910000000000001</v>
       </c>
       <c r="M11" s="4">
-        <v>2.502</v>
+        <v>2.5019999999999998</v>
       </c>
       <c r="N11" s="4">
-        <v>4.636</v>
+        <v>4.6360000000000001</v>
       </c>
       <c r="O11" s="4">
-        <v>5.299</v>
+        <v>5.2990000000000004</v>
       </c>
       <c r="P11" s="4">
         <v>1.784</v>
       </c>
       <c r="Q11" s="4">
-        <v>0.994</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="4">
-        <v>1.638</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="C12" s="4">
-        <v>9.363</v>
+        <v>9.3629999999999995</v>
       </c>
       <c r="D12" s="4">
         <v>1.393</v>
       </c>
       <c r="E12" s="4">
-        <v>1.563</v>
+        <v>1.5629999999999999</v>
       </c>
       <c r="F12" s="4">
         <v>1.423</v>
       </c>
       <c r="G12" s="4">
-        <v>2.377</v>
+        <v>2.3769999999999998</v>
       </c>
       <c r="H12" s="4">
         <v>2.085</v>
@@ -1951,19 +1756,19 @@
         <v>1.784</v>
       </c>
       <c r="J12" s="4">
-        <v>0.987</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="K12" s="4">
-        <v>3.537</v>
+        <v>3.5369999999999999</v>
       </c>
       <c r="L12" s="4">
         <v>1.83</v>
       </c>
       <c r="M12" s="4">
-        <v>0.851</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="N12" s="4">
-        <v>2.985</v>
+        <v>2.9849999999999999</v>
       </c>
       <c r="O12" s="4">
         <v>4.907</v>
@@ -1975,30 +1780,30 @@
         <v>0.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="4">
-        <v>2.308</v>
+        <v>2.3079999999999998</v>
       </c>
       <c r="C13" s="4">
-        <v>9.72</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="D13" s="4">
-        <v>1.545</v>
+        <v>1.5449999999999999</v>
       </c>
       <c r="E13" s="4">
         <v>3.16</v>
       </c>
       <c r="F13" s="4">
-        <v>2.092</v>
+        <v>2.0920000000000001</v>
       </c>
       <c r="G13" s="4">
-        <v>2.735</v>
+        <v>2.7349999999999999</v>
       </c>
       <c r="H13" s="4">
-        <v>2.693</v>
+        <v>2.6930000000000001</v>
       </c>
       <c r="I13" s="4">
         <v>2.077</v>
@@ -2007,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="4">
-        <v>4.889</v>
+        <v>4.8890000000000002</v>
       </c>
       <c r="L13" s="4">
         <v>3.427</v>
       </c>
       <c r="M13" s="4">
-        <v>1.209</v>
+        <v>1.2090000000000001</v>
       </c>
       <c r="N13" s="4">
         <v>3.343</v>
       </c>
       <c r="O13" s="4">
-        <v>5.265</v>
+        <v>5.2649999999999997</v>
       </c>
       <c r="P13" s="4">
         <v>1.133</v>
@@ -2028,39 +1833,39 @@
         <v>1.119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
-        <v>2.523</v>
+        <v>2.5230000000000001</v>
       </c>
       <c r="C14" s="4">
-        <v>9.272</v>
+        <v>9.2720000000000002</v>
       </c>
       <c r="D14" s="4">
-        <v>1.203</v>
+        <v>1.2030000000000001</v>
       </c>
       <c r="E14" s="4">
-        <v>2.378</v>
+        <v>2.3780000000000001</v>
       </c>
       <c r="F14" s="4">
-        <v>2.307</v>
+        <v>2.3069999999999999</v>
       </c>
       <c r="G14" s="4">
         <v>2.286</v>
       </c>
       <c r="H14" s="4">
-        <v>2.245</v>
+        <v>2.2450000000000001</v>
       </c>
       <c r="I14" s="4">
-        <v>2.689</v>
+        <v>2.6890000000000001</v>
       </c>
       <c r="J14" s="4">
-        <v>1.793</v>
+        <v>1.7929999999999999</v>
       </c>
       <c r="K14" s="4">
-        <v>4.441</v>
+        <v>4.4409999999999998</v>
       </c>
       <c r="L14" s="4">
         <v>2.645</v>
@@ -2072,45 +1877,45 @@
         <v>2.895</v>
       </c>
       <c r="O14" s="4">
-        <v>4.816</v>
+        <v>4.8159999999999998</v>
       </c>
       <c r="P14" s="4">
-        <v>0.815</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="Q14" s="4">
-        <v>1.731</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+        <v>1.7310000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="4">
-        <v>4.979</v>
+        <v>4.9790000000000001</v>
       </c>
       <c r="C15" s="4">
-        <v>8.999</v>
+        <v>8.9990000000000006</v>
       </c>
       <c r="D15" s="4">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="E15" s="4">
         <v>3.609</v>
       </c>
       <c r="F15" s="4">
-        <v>4.763</v>
+        <v>4.7629999999999999</v>
       </c>
       <c r="G15" s="4">
         <v>1.881</v>
       </c>
       <c r="H15" s="4">
-        <v>3.227</v>
+        <v>3.2269999999999999</v>
       </c>
       <c r="I15" s="4">
-        <v>5.145</v>
+        <v>5.1449999999999996</v>
       </c>
       <c r="J15" s="4">
-        <v>3.986</v>
+        <v>3.9860000000000002</v>
       </c>
       <c r="K15" s="4">
         <v>5.423</v>
@@ -2125,16 +1930,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="4">
-        <v>4.689</v>
+        <v>4.6890000000000001</v>
       </c>
       <c r="P15" s="4">
-        <v>3.271</v>
+        <v>3.2709999999999999</v>
       </c>
       <c r="Q15" s="4">
-        <v>4.187</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+        <v>4.1870000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2145,13 +1950,13 @@
         <v>10.166</v>
       </c>
       <c r="D16" s="4">
-        <v>2.197</v>
+        <v>2.1970000000000001</v>
       </c>
       <c r="E16" s="4">
-        <v>1.612</v>
+        <v>1.6120000000000001</v>
       </c>
       <c r="F16" s="4">
-        <v>1.082</v>
+        <v>1.0820000000000001</v>
       </c>
       <c r="G16" s="4">
         <v>3.18</v>
@@ -2160,13 +1965,13 @@
         <v>2.198</v>
       </c>
       <c r="I16" s="4">
-        <v>0.994</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="J16" s="4">
-        <v>0.973</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="K16" s="4">
-        <v>3.586</v>
+        <v>3.5859999999999999</v>
       </c>
       <c r="L16" s="4">
         <v>1.879</v>
@@ -2175,10 +1980,10 @@
         <v>1.655</v>
       </c>
       <c r="N16" s="4">
-        <v>3.788</v>
+        <v>3.7879999999999998</v>
       </c>
       <c r="O16" s="4">
-        <v>4.687</v>
+        <v>4.6870000000000003</v>
       </c>
       <c r="P16" s="4">
         <v>0.9</v>
@@ -2187,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+    <row r="17" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -2195,40 +2000,40 @@
         <v>5.548</v>
       </c>
       <c r="C17" s="4">
-        <v>9.568</v>
+        <v>9.5679999999999996</v>
       </c>
       <c r="D17" s="4">
-        <v>3.039</v>
+        <v>3.0390000000000001</v>
       </c>
       <c r="E17" s="4">
-        <v>4.178</v>
+        <v>4.1779999999999999</v>
       </c>
       <c r="F17" s="4">
-        <v>5.332</v>
+        <v>5.3319999999999999</v>
       </c>
       <c r="G17" s="4">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H17" s="4">
-        <v>3.796</v>
+        <v>3.7959999999999998</v>
       </c>
       <c r="I17" s="4">
-        <v>5.715</v>
+        <v>5.7149999999999999</v>
       </c>
       <c r="J17" s="4">
-        <v>4.555</v>
+        <v>4.5549999999999997</v>
       </c>
       <c r="K17" s="4">
-        <v>5.378</v>
+        <v>5.3780000000000001</v>
       </c>
       <c r="L17" s="4">
-        <v>4.445</v>
+        <v>4.4450000000000003</v>
       </c>
       <c r="M17" s="4">
         <v>3.714</v>
       </c>
       <c r="N17" s="4">
-        <v>3.058</v>
+        <v>3.0579999999999998</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
@@ -2237,7 +2042,7 @@
         <v>3.84</v>
       </c>
       <c r="Q17" s="4">
-        <v>4.756</v>
+        <v>4.7560000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2246,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2256,27 +2061,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="8"/>
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -2326,7 +2117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2337,13 +2128,13 @@
         <v>19</v>
       </c>
       <c r="D2" s="4">
-        <v>9.316666666666666</v>
+        <v>9.3166666666666664</v>
       </c>
       <c r="E2" s="4">
-        <v>4.683333333333334</v>
+        <v>4.6833333333333336</v>
       </c>
       <c r="F2" s="4">
-        <v>1.133333333333333</v>
+        <v>1.1333333333333331</v>
       </c>
       <c r="G2" s="4">
         <v>11.53333333333333</v>
@@ -2355,19 +2146,19 @@
         <v>6.166666666666667</v>
       </c>
       <c r="J2" s="4">
-        <v>7.283333333333333</v>
+        <v>7.2833333333333332</v>
       </c>
       <c r="K2" s="3">
         <v>10</v>
       </c>
       <c r="L2" s="4">
-        <v>6.033333333333333</v>
+        <v>6.0333333333333332</v>
       </c>
       <c r="M2" s="4">
         <v>8.6</v>
       </c>
       <c r="N2" s="4">
-        <v>12.26666666666667</v>
+        <v>12.266666666666669</v>
       </c>
       <c r="O2" s="4">
         <v>14.46666666666667</v>
@@ -2379,7 +2170,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2390,34 +2181,34 @@
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>13.26666666666667</v>
+        <v>13.266666666666669</v>
       </c>
       <c r="E3" s="4">
-        <v>16.38333333333333</v>
+        <v>16.383333333333329</v>
       </c>
       <c r="F3" s="4">
-        <v>19.63333333333333</v>
+        <v>19.633333333333329</v>
       </c>
       <c r="G3" s="4">
         <v>10.16666666666667</v>
       </c>
       <c r="H3" s="4">
-        <v>14.51666666666667</v>
+        <v>14.516666666666669</v>
       </c>
       <c r="I3" s="4">
-        <v>21.41666666666667</v>
+        <v>21.416666666666671</v>
       </c>
       <c r="J3" s="4">
-        <v>17.88333333333333</v>
+        <v>17.883333333333329</v>
       </c>
       <c r="K3" s="4">
-        <v>21.66666666666667</v>
+        <v>21.666666666666671</v>
       </c>
       <c r="L3" s="4">
-        <v>17.63333333333333</v>
+        <v>17.633333333333329</v>
       </c>
       <c r="M3" s="4">
-        <v>15.38333333333333</v>
+        <v>15.383333333333329</v>
       </c>
       <c r="N3" s="4">
         <v>10.91666666666667</v>
@@ -2426,33 +2217,33 @@
         <v>21.06666666666667</v>
       </c>
       <c r="P3" s="4">
-        <v>14.88333333333333</v>
+        <v>14.883333333333329</v>
       </c>
       <c r="Q3" s="4">
         <v>17.45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>10.73333333333333</v>
+        <v>10.733333333333331</v>
       </c>
       <c r="C4" s="4">
-        <v>13.73333333333333</v>
+        <v>13.733333333333331</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F4" s="4">
-        <v>9.866666666666667</v>
+        <v>9.8666666666666671</v>
       </c>
       <c r="G4" s="4">
-        <v>6.266666666666667</v>
+        <v>6.2666666666666666</v>
       </c>
       <c r="H4" s="4">
         <v>6.95</v>
@@ -2461,7 +2252,7 @@
         <v>11.65</v>
       </c>
       <c r="J4" s="4">
-        <v>6.233333333333333</v>
+        <v>6.2333333333333334</v>
       </c>
       <c r="K4" s="4">
         <v>14.1</v>
@@ -2479,39 +2270,39 @@
         <v>13.6</v>
       </c>
       <c r="P4" s="4">
-        <v>5.116666666666666</v>
+        <v>5.1166666666666663</v>
       </c>
       <c r="Q4" s="4">
-        <v>7.683333333333334</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>7.6833333333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>5.183333333333334</v>
+        <v>5.1833333333333336</v>
       </c>
       <c r="C5" s="4">
-        <v>17.71666666666667</v>
+        <v>17.716666666666669</v>
       </c>
       <c r="D5" s="4">
-        <v>8.033333333333333</v>
+        <v>8.0333333333333332</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>4.316666666666666</v>
+        <v>4.3166666666666664</v>
       </c>
       <c r="G5" s="4">
         <v>10.25</v>
       </c>
       <c r="H5" s="4">
-        <v>6.066666666666666</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="I5" s="4">
-        <v>10.01666666666667</v>
+        <v>10.016666666666669</v>
       </c>
       <c r="J5" s="4">
         <v>11.5</v>
@@ -2523,27 +2314,27 @@
         <v>1.25</v>
       </c>
       <c r="M5" s="4">
-        <v>7.883333333333334</v>
+        <v>7.8833333333333337</v>
       </c>
       <c r="N5" s="4">
-        <v>10.98333333333333</v>
+        <v>10.983333333333331</v>
       </c>
       <c r="O5" s="4">
-        <v>9.783333333333333</v>
+        <v>9.7833333333333332</v>
       </c>
       <c r="P5" s="4">
-        <v>7.066666666666666</v>
+        <v>7.0666666666666664</v>
       </c>
       <c r="Q5" s="4">
         <v>7.583333333333333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>2.683333333333333</v>
+        <v>2.6833333333333331</v>
       </c>
       <c r="C6" s="4">
         <v>20.85</v>
@@ -2552,46 +2343,46 @@
         <v>11.16666666666667</v>
       </c>
       <c r="E6" s="4">
-        <v>6.533333333333333</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>13.38333333333333</v>
+        <v>13.383333333333329</v>
       </c>
       <c r="H6" s="4">
-        <v>9.666666666666666</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="I6" s="4">
-        <v>8.516666666666667</v>
+        <v>8.5166666666666675</v>
       </c>
       <c r="J6" s="4">
-        <v>9.966666666666667</v>
+        <v>9.9666666666666668</v>
       </c>
       <c r="K6" s="4">
-        <v>8.866666666666667</v>
+        <v>8.8666666666666671</v>
       </c>
       <c r="L6" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M6" s="4">
         <v>10.41666666666667</v>
       </c>
       <c r="N6" s="4">
-        <v>14.11666666666667</v>
+        <v>14.116666666666671</v>
       </c>
       <c r="O6" s="4">
         <v>15.53333333333333</v>
       </c>
       <c r="P6" s="4">
-        <v>7.033333333333333</v>
+        <v>7.0333333333333332</v>
       </c>
       <c r="Q6" s="4">
         <v>6.05</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2602,22 +2393,22 @@
         <v>13.1</v>
       </c>
       <c r="D7" s="4">
-        <v>8.366666666666667</v>
+        <v>8.3666666666666671</v>
       </c>
       <c r="E7" s="4">
         <v>11.46666666666667</v>
       </c>
       <c r="F7" s="4">
-        <v>14.73333333333333</v>
+        <v>14.733333333333331</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I7" s="4">
-        <v>16.51666666666667</v>
+        <v>16.516666666666669</v>
       </c>
       <c r="J7" s="4">
         <v>12.96666666666667</v>
@@ -2629,22 +2420,22 @@
         <v>12.71666666666667</v>
       </c>
       <c r="M7" s="4">
-        <v>10.48333333333333</v>
+        <v>10.483333333333331</v>
       </c>
       <c r="N7" s="4">
-        <v>2.933333333333333</v>
+        <v>2.9333333333333331</v>
       </c>
       <c r="O7" s="4">
         <v>13.1</v>
       </c>
       <c r="P7" s="4">
-        <v>9.983333333333333</v>
+        <v>9.9833333333333325</v>
       </c>
       <c r="Q7" s="4">
         <v>12.55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2655,16 +2446,16 @@
         <v>15.16666666666667</v>
       </c>
       <c r="D8" s="4">
-        <v>5.483333333333333</v>
+        <v>5.4833333333333334</v>
       </c>
       <c r="E8" s="4">
-        <v>6.033333333333333</v>
+        <v>6.0333333333333332</v>
       </c>
       <c r="F8" s="4">
-        <v>9.783333333333333</v>
+        <v>9.7833333333333332</v>
       </c>
       <c r="G8" s="4">
-        <v>7.716666666666667</v>
+        <v>7.7166666666666668</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -2676,36 +2467,36 @@
         <v>10.1</v>
       </c>
       <c r="K8" s="4">
-        <v>9.95</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="L8" s="4">
         <v>7.3</v>
       </c>
       <c r="M8" s="4">
-        <v>6.966666666666667</v>
+        <v>6.9666666666666668</v>
       </c>
       <c r="N8" s="4">
-        <v>8.45</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="O8" s="4">
-        <v>10.63333333333333</v>
+        <v>10.633333333333329</v>
       </c>
       <c r="P8" s="4">
-        <v>7.883333333333334</v>
+        <v>7.8833333333333337</v>
       </c>
       <c r="Q8" s="4">
         <v>10.45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>3.933333333333333</v>
+        <v>3.9333333333333331</v>
       </c>
       <c r="C9" s="4">
-        <v>17.23333333333333</v>
+        <v>17.233333333333331</v>
       </c>
       <c r="D9" s="4">
         <v>7.55</v>
@@ -2714,10 +2505,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="4">
-        <v>3.066666666666667</v>
+        <v>3.0666666666666669</v>
       </c>
       <c r="G9" s="4">
-        <v>9.766666666666667</v>
+        <v>9.7666666666666675</v>
       </c>
       <c r="H9" s="4">
         <v>6.05</v>
@@ -2729,42 +2520,42 @@
         <v>10.25</v>
       </c>
       <c r="K9" s="4">
-        <v>7.766666666666667</v>
+        <v>7.7666666666666666</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="4">
-        <v>6.633333333333334</v>
+        <v>6.6333333333333337</v>
       </c>
       <c r="N9" s="4">
-        <v>10.51666666666667</v>
+        <v>10.516666666666669</v>
       </c>
       <c r="O9" s="4">
-        <v>10.63333333333333</v>
+        <v>10.633333333333329</v>
       </c>
       <c r="P9" s="4">
-        <v>5.816666666666666</v>
+        <v>5.8166666666666664</v>
       </c>
       <c r="Q9" s="4">
-        <v>6.316666666666666</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>6.3166666666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>9.783333333333333</v>
+        <v>9.7833333333333332</v>
       </c>
       <c r="C10" s="4">
-        <v>22.16666666666667</v>
+        <v>22.166666666666671</v>
       </c>
       <c r="D10" s="4">
-        <v>12.48333333333333</v>
+        <v>12.483333333333331</v>
       </c>
       <c r="E10" s="4">
-        <v>8.783333333333333</v>
+        <v>8.7833333333333332</v>
       </c>
       <c r="F10" s="4">
         <v>10.35</v>
@@ -2773,22 +2564,22 @@
         <v>14.7</v>
       </c>
       <c r="H10" s="4">
-        <v>9.833333333333334</v>
+        <v>9.8333333333333339</v>
       </c>
       <c r="I10" s="4">
-        <v>11.76666666666667</v>
+        <v>11.766666666666669</v>
       </c>
       <c r="J10" s="4">
-        <v>16.36666666666667</v>
+        <v>16.366666666666671</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="4">
-        <v>7.716666666666667</v>
+        <v>7.7166666666666668</v>
       </c>
       <c r="M10" s="4">
-        <v>14.01666666666667</v>
+        <v>14.016666666666669</v>
       </c>
       <c r="N10" s="4">
         <v>15.43333333333333</v>
@@ -2800,15 +2591,15 @@
         <v>13.18333333333333</v>
       </c>
       <c r="Q10" s="4">
-        <v>12.38333333333333</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>12.383333333333329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4">
-        <v>5.466666666666667</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="C11" s="4">
         <v>18.95</v>
@@ -2817,13 +2608,13 @@
         <v>7.65</v>
       </c>
       <c r="E11" s="4">
-        <v>8.116666666666667</v>
+        <v>8.1166666666666671</v>
       </c>
       <c r="F11" s="4">
         <v>6.666666666666667</v>
       </c>
       <c r="G11" s="4">
-        <v>11.48333333333333</v>
+        <v>11.483333333333331</v>
       </c>
       <c r="H11" s="4">
         <v>10.46666666666667</v>
@@ -2832,31 +2623,31 @@
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>5.366666666666666</v>
+        <v>5.3666666666666663</v>
       </c>
       <c r="K11" s="4">
         <v>11.91666666666667</v>
       </c>
       <c r="L11" s="4">
-        <v>9.383333333333333</v>
+        <v>9.3833333333333329</v>
       </c>
       <c r="M11" s="4">
-        <v>7.216666666666667</v>
+        <v>7.2166666666666668</v>
       </c>
       <c r="N11" s="4">
-        <v>12.23333333333333</v>
+        <v>12.233333333333331</v>
       </c>
       <c r="O11" s="4">
-        <v>17.91666666666667</v>
+        <v>17.916666666666671</v>
       </c>
       <c r="P11" s="4">
-        <v>6.566666666666666</v>
+        <v>6.5666666666666664</v>
       </c>
       <c r="Q11" s="4">
-        <v>4.383333333333334</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>4.3833333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2864,16 +2655,16 @@
         <v>5.833333333333333</v>
       </c>
       <c r="C12" s="4">
-        <v>15.11666666666667</v>
+        <v>15.116666666666671</v>
       </c>
       <c r="D12" s="4">
-        <v>3.816666666666667</v>
+        <v>3.8166666666666669</v>
       </c>
       <c r="E12" s="4">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F12" s="4">
-        <v>4.966666666666667</v>
+        <v>4.9666666666666668</v>
       </c>
       <c r="G12" s="4">
         <v>7.666666666666667</v>
@@ -2885,7 +2676,7 @@
         <v>6.5</v>
       </c>
       <c r="J12" s="4">
-        <v>4.733333333333333</v>
+        <v>4.7333333333333334</v>
       </c>
       <c r="K12" s="4">
         <v>11.91666666666667</v>
@@ -2894,13 +2685,13 @@
         <v>6.35</v>
       </c>
       <c r="M12" s="4">
-        <v>3.383333333333333</v>
+        <v>3.3833333333333329</v>
       </c>
       <c r="N12" s="4">
         <v>8.4</v>
       </c>
       <c r="O12" s="4">
-        <v>13.86666666666667</v>
+        <v>13.866666666666671</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
@@ -2909,15 +2700,15 @@
         <v>2.833333333333333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="4">
-        <v>8.816666666666666</v>
+        <v>8.8166666666666664</v>
       </c>
       <c r="C13" s="4">
-        <v>16.11666666666667</v>
+        <v>16.116666666666671</v>
       </c>
       <c r="D13" s="4">
         <v>4.666666666666667</v>
@@ -2929,31 +2720,31 @@
         <v>7.95</v>
       </c>
       <c r="G13" s="4">
-        <v>8.666666666666666</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="H13" s="4">
-        <v>8.233333333333333</v>
+        <v>8.2333333333333325</v>
       </c>
       <c r="I13" s="4">
-        <v>8.666666666666666</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
       </c>
       <c r="K13" s="4">
-        <v>15.36666666666667</v>
+        <v>15.366666666666671</v>
       </c>
       <c r="L13" s="4">
         <v>11.33333333333333</v>
       </c>
       <c r="M13" s="4">
-        <v>4.383333333333334</v>
+        <v>4.3833333333333337</v>
       </c>
       <c r="N13" s="4">
         <v>9.4</v>
       </c>
       <c r="O13" s="4">
-        <v>14.86666666666667</v>
+        <v>14.866666666666671</v>
       </c>
       <c r="P13" s="4">
         <v>4.95</v>
@@ -2962,48 +2753,48 @@
         <v>4.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
-        <v>9.066666666666666</v>
+        <v>9.0666666666666664</v>
       </c>
       <c r="C14" s="4">
         <v>15.93333333333333</v>
       </c>
       <c r="D14" s="4">
-        <v>5.116666666666666</v>
+        <v>5.1166666666666663</v>
       </c>
       <c r="E14" s="4">
-        <v>8.55</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="F14" s="4">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G14" s="4">
-        <v>8.466666666666667</v>
+        <v>8.4666666666666668</v>
       </c>
       <c r="H14" s="4">
-        <v>8.033333333333333</v>
+        <v>8.0333333333333332</v>
       </c>
       <c r="I14" s="4">
-        <v>9.983333333333333</v>
+        <v>9.9833333333333325</v>
       </c>
       <c r="J14" s="4">
-        <v>7.016666666666667</v>
+        <v>7.0166666666666666</v>
       </c>
       <c r="K14" s="4">
         <v>15.18333333333333</v>
       </c>
       <c r="L14" s="4">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="4">
-        <v>9.216666666666667</v>
+        <v>9.2166666666666668</v>
       </c>
       <c r="O14" s="4">
         <v>14.66666666666667</v>
@@ -3012,10 +2803,10 @@
         <v>3.45</v>
       </c>
       <c r="Q14" s="4">
-        <v>6.016666666666667</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>6.0166666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -3026,10 +2817,10 @@
         <v>11.46666666666667</v>
       </c>
       <c r="D15" s="4">
-        <v>6.733333333333333</v>
+        <v>6.7333333333333334</v>
       </c>
       <c r="E15" s="4">
-        <v>9.833333333333334</v>
+        <v>9.8333333333333339</v>
       </c>
       <c r="F15" s="4">
         <v>13.1</v>
@@ -3038,10 +2829,10 @@
         <v>4.416666666666667</v>
       </c>
       <c r="H15" s="4">
-        <v>8.166666666666666</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="I15" s="4">
-        <v>14.88333333333333</v>
+        <v>14.883333333333329</v>
       </c>
       <c r="J15" s="4">
         <v>11.33333333333333</v>
@@ -3068,7 +2859,7 @@
         <v>10.91666666666667</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -3076,10 +2867,10 @@
         <v>5.166666666666667</v>
       </c>
       <c r="C16" s="4">
-        <v>17.85</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="D16" s="4">
-        <v>6.533333333333333</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="E16" s="4">
         <v>5.75</v>
@@ -3088,28 +2879,28 @@
         <v>4.3</v>
       </c>
       <c r="G16" s="4">
-        <v>10.38333333333333</v>
+        <v>10.383333333333329</v>
       </c>
       <c r="H16" s="4">
-        <v>8.133333333333333</v>
+        <v>8.1333333333333329</v>
       </c>
       <c r="I16" s="4">
         <v>4.45</v>
       </c>
       <c r="J16" s="4">
-        <v>4.766666666666667</v>
+        <v>4.7666666666666666</v>
       </c>
       <c r="K16" s="4">
         <v>12.56666666666667</v>
       </c>
       <c r="L16" s="4">
-        <v>7.016666666666667</v>
+        <v>7.0166666666666666</v>
       </c>
       <c r="M16" s="4">
         <v>6.1</v>
       </c>
       <c r="N16" s="4">
-        <v>11.11666666666667</v>
+        <v>11.116666666666671</v>
       </c>
       <c r="O16" s="4">
         <v>15.55</v>
@@ -3121,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -3132,7 +2923,7 @@
         <v>12.95</v>
       </c>
       <c r="D17" s="4">
-        <v>8.216666666666667</v>
+        <v>8.2166666666666668</v>
       </c>
       <c r="E17" s="4">
         <v>11.31666666666667</v>
@@ -3147,13 +2938,13 @@
         <v>9.65</v>
       </c>
       <c r="I17" s="4">
-        <v>16.36666666666667</v>
+        <v>16.366666666666671</v>
       </c>
       <c r="J17" s="4">
         <v>12.81666666666667</v>
       </c>
       <c r="K17" s="4">
-        <v>17.28333333333333</v>
+        <v>17.283333333333331</v>
       </c>
       <c r="L17" s="4">
         <v>12.56666666666667</v>
@@ -3162,13 +2953,13 @@
         <v>10.33333333333333</v>
       </c>
       <c r="N17" s="4">
-        <v>6.633333333333334</v>
+        <v>6.6333333333333337</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="4">
-        <v>9.833333333333334</v>
+        <v>9.8333333333333339</v>
       </c>
       <c r="Q17" s="4">
         <v>12.4</v>
@@ -3180,7 +2971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3190,26 +2981,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3262,7 +3039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3270,22 +3047,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>5.692705814441736</v>
+        <v>5.6927058144417364</v>
       </c>
       <c r="D2" s="4">
         <v>4.009187254707669</v>
       </c>
       <c r="E2" s="4">
-        <v>6.120508812445773</v>
+        <v>6.1205088124457729</v>
       </c>
       <c r="F2" s="4">
-        <v>4.630199925198265</v>
+        <v>4.6301999251982648</v>
       </c>
       <c r="G2" s="4">
-        <v>4.392059783388588</v>
+        <v>4.3920597833885884</v>
       </c>
       <c r="H2" s="4">
-        <v>3.111159588335737</v>
+        <v>3.1111595883357368</v>
       </c>
       <c r="I2" s="4">
         <v>6.348427833610768</v>
@@ -3294,81 +3071,81 @@
         <v>3.894393018239223</v>
       </c>
       <c r="K2" s="4">
-        <v>7.024808225296545</v>
+        <v>7.0248082252965451</v>
       </c>
       <c r="L2" s="4">
-        <v>4.927401014653253</v>
+        <v>4.9274010146532534</v>
       </c>
       <c r="M2" s="4">
-        <v>3.345049272644019</v>
+        <v>3.3450492726440189</v>
       </c>
       <c r="N2" s="4">
         <v>1.625553256344838</v>
       </c>
       <c r="O2" s="4">
-        <v>3.365120740908181</v>
+        <v>3.3651207409081811</v>
       </c>
       <c r="P2" s="4">
         <v>3.736524559954018</v>
       </c>
       <c r="Q2" s="4">
-        <v>4.890171634977857</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>4.8901716349778566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>5.692705814441736</v>
+        <v>5.6927058144417364</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>8.535780977220423</v>
+        <v>8.5357809772204227</v>
       </c>
       <c r="E3" s="4">
         <v>1.318195516098523</v>
       </c>
       <c r="F3" s="4">
-        <v>2.136394164799602</v>
+        <v>2.1363941647996021</v>
       </c>
       <c r="G3" s="4">
         <v>1.716672939114352</v>
       </c>
       <c r="H3" s="4">
-        <v>3.495250834529719</v>
+        <v>3.4952508345297191</v>
       </c>
       <c r="I3" s="4">
         <v>1.594097851568762</v>
       </c>
       <c r="J3" s="4">
-        <v>2.748895674284989</v>
+        <v>2.7488956742849888</v>
       </c>
       <c r="K3" s="4">
-        <v>4.009487637661257</v>
+        <v>4.0094876376612572</v>
       </c>
       <c r="L3" s="4">
         <v>1.7439933031151</v>
       </c>
       <c r="M3" s="4">
-        <v>2.354056091164756</v>
+        <v>2.3540560911647561</v>
       </c>
       <c r="N3" s="4">
-        <v>6.485397091144045</v>
+        <v>6.4853970911440451</v>
       </c>
       <c r="O3" s="4">
         <v>6.780620196920534</v>
       </c>
       <c r="P3" s="4">
-        <v>2.170023620943011</v>
+        <v>2.1700236209430108</v>
       </c>
       <c r="Q3" s="4">
-        <v>1.105327841684209</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>1.1053278416842089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3376,37 +3153,37 @@
         <v>4.009187254707669</v>
       </c>
       <c r="C4" s="4">
-        <v>8.535780977220423</v>
+        <v>8.5357809772204227</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>8.393178659418677</v>
+        <v>8.3931786594186768</v>
       </c>
       <c r="F4" s="4">
-        <v>6.701029214680014</v>
+        <v>6.7010292146800143</v>
       </c>
       <c r="G4" s="4">
-        <v>6.860857273159607</v>
+        <v>6.8608572731596071</v>
       </c>
       <c r="H4" s="4">
-        <v>5.064720392544379</v>
+        <v>5.0647203925443787</v>
       </c>
       <c r="I4" s="4">
         <v>9.648553677065081</v>
       </c>
       <c r="J4" s="4">
-        <v>7.593501920604152</v>
+        <v>7.5935019206041519</v>
       </c>
       <c r="K4" s="4">
-        <v>7.934144439191736</v>
+        <v>7.9341444391917362</v>
       </c>
       <c r="L4" s="4">
-        <v>7.124325987472782</v>
+        <v>7.1243259874727816</v>
       </c>
       <c r="M4" s="4">
-        <v>6.377744660347846</v>
+        <v>6.3777446603478456</v>
       </c>
       <c r="N4" s="4">
         <v>2.424990185152093</v>
@@ -3415,39 +3192,39 @@
         <v>1.9442304035956</v>
       </c>
       <c r="P4" s="4">
-        <v>7.130016558461034</v>
+        <v>7.1300165584610342</v>
       </c>
       <c r="Q4" s="4">
         <v>8.091682024887497</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>6.120508812445773</v>
+        <v>6.1205088124457729</v>
       </c>
       <c r="C5" s="4">
         <v>1.318195516098523</v>
       </c>
       <c r="D5" s="4">
-        <v>8.393178659418677</v>
+        <v>8.3931786594186768</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>1.69385671330764</v>
+        <v>1.6938567133076401</v>
       </c>
       <c r="G5" s="4">
-        <v>1.729744925696138</v>
+        <v>1.7297449256961379</v>
       </c>
       <c r="H5" s="4">
-        <v>3.382656929188913</v>
+        <v>3.3826569291889128</v>
       </c>
       <c r="I5" s="4">
-        <v>2.81446154175797</v>
+        <v>2.8144615417579701</v>
       </c>
       <c r="J5" s="4">
         <v>3.856832274364062</v>
@@ -3456,95 +3233,95 @@
         <v>2.731648011495373</v>
       </c>
       <c r="L5" s="4">
-        <v>1.28182736922209</v>
+        <v>1.2818273692220901</v>
       </c>
       <c r="M5" s="4">
-        <v>2.882097009430085</v>
+        <v>2.8820970094300851</v>
       </c>
       <c r="N5" s="4">
-        <v>6.603381590430365</v>
+        <v>6.6033815904303648</v>
       </c>
       <c r="O5" s="4">
-        <v>6.519801958543647</v>
+        <v>6.5198019585436473</v>
       </c>
       <c r="P5" s="4">
-        <v>3.094815296584793</v>
+        <v>3.0948152965847928</v>
       </c>
       <c r="Q5" s="4">
         <v>2.294129746909932</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>4.630199925198265</v>
+        <v>4.6301999251982648</v>
       </c>
       <c r="C6" s="4">
-        <v>2.136394164799602</v>
+        <v>2.1363941647996021</v>
       </c>
       <c r="D6" s="4">
-        <v>6.701029214680014</v>
+        <v>6.7010292146800143</v>
       </c>
       <c r="E6" s="4">
-        <v>1.69385671330764</v>
+        <v>1.6938567133076401</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>0.6678096742361325</v>
+        <v>0.66780967423613247</v>
       </c>
       <c r="H6" s="4">
         <v>1.70522555120874</v>
       </c>
       <c r="I6" s="4">
-        <v>3.66017807510984</v>
+        <v>3.6601780751098398</v>
       </c>
       <c r="J6" s="4">
-        <v>3.419498455674412</v>
+        <v>3.4194984556744119</v>
       </c>
       <c r="K6" s="4">
-        <v>2.768730578086091</v>
+        <v>2.7687305780860911</v>
       </c>
       <c r="L6" s="4">
-        <v>0.4332861194575796</v>
+        <v>0.43328611945757961</v>
       </c>
       <c r="M6" s="4">
         <v>1.804417783176067</v>
       </c>
       <c r="N6" s="4">
-        <v>4.946240816258711</v>
+        <v>4.9462408162587108</v>
       </c>
       <c r="O6" s="4">
-        <v>4.839866405259746</v>
+        <v>4.8398664052597464</v>
       </c>
       <c r="P6" s="4">
-        <v>2.492737642571129</v>
+        <v>2.4927376425711292</v>
       </c>
       <c r="Q6" s="4">
-        <v>2.401698199660838</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>2.4016981996608382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>4.392059783388588</v>
+        <v>4.3920597833885884</v>
       </c>
       <c r="C7" s="4">
         <v>1.716672939114352</v>
       </c>
       <c r="D7" s="4">
-        <v>6.860857273159607</v>
+        <v>6.8608572731596071</v>
       </c>
       <c r="E7" s="4">
-        <v>1.729744925696138</v>
+        <v>1.7297449256961379</v>
       </c>
       <c r="F7" s="4">
-        <v>0.6678096742361325</v>
+        <v>0.66780967423613247</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -3553,48 +3330,48 @@
         <v>1.797838795306498</v>
       </c>
       <c r="I7" s="4">
-        <v>3.129571427895711</v>
+        <v>3.1295714278957112</v>
       </c>
       <c r="J7" s="4">
-        <v>2.763672438851342</v>
+        <v>2.7636724388513421</v>
       </c>
       <c r="K7" s="4">
-        <v>3.375921210409884</v>
+        <v>3.3759212104098841</v>
       </c>
       <c r="L7" s="4">
-        <v>0.63254275190891</v>
+        <v>0.63254275190890996</v>
       </c>
       <c r="M7" s="4">
         <v>1.263511243642742</v>
       </c>
       <c r="N7" s="4">
-        <v>4.925815032077801</v>
+        <v>4.9258150320778009</v>
       </c>
       <c r="O7" s="4">
-        <v>5.072785727748026</v>
+        <v>5.0727857277480259</v>
       </c>
       <c r="P7" s="4">
         <v>1.843374056134677</v>
       </c>
       <c r="Q7" s="4">
-        <v>1.770638126117957</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>1.7706381261179569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>3.111159588335737</v>
+        <v>3.1111595883357368</v>
       </c>
       <c r="C8" s="4">
-        <v>3.495250834529719</v>
+        <v>3.4952508345297191</v>
       </c>
       <c r="D8" s="4">
-        <v>5.064720392544379</v>
+        <v>5.0647203925443787</v>
       </c>
       <c r="E8" s="4">
-        <v>3.382656929188913</v>
+        <v>3.3826569291889128</v>
       </c>
       <c r="F8" s="4">
         <v>1.70522555120874</v>
@@ -3606,22 +3383,22 @@
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>4.768560434388823</v>
+        <v>4.7685604343888226</v>
       </c>
       <c r="J8" s="4">
-        <v>3.466036311555115</v>
+        <v>3.4660363115551149</v>
       </c>
       <c r="K8" s="4">
-        <v>3.918070984841904</v>
+        <v>3.9180709848419042</v>
       </c>
       <c r="L8" s="4">
-        <v>2.1008903621197</v>
+        <v>2.1008903621197001</v>
       </c>
       <c r="M8" s="4">
         <v>1.69898063741751</v>
       </c>
       <c r="N8" s="4">
-        <v>3.243625069484449</v>
+        <v>3.2436250694844491</v>
       </c>
       <c r="O8" s="4">
         <v>3.28673182286414</v>
@@ -3630,10 +3407,10 @@
         <v>2.640881313227418</v>
       </c>
       <c r="Q8" s="4">
-        <v>3.248193667254791</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>3.2481936672547911</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3647,16 +3424,16 @@
         <v>9.648553677065081</v>
       </c>
       <c r="E9" s="4">
-        <v>2.81446154175797</v>
+        <v>2.8144615417579701</v>
       </c>
       <c r="F9" s="4">
-        <v>3.66017807510984</v>
+        <v>3.6601780751098398</v>
       </c>
       <c r="G9" s="4">
-        <v>3.129571427895711</v>
+        <v>3.1295714278957112</v>
       </c>
       <c r="H9" s="4">
-        <v>4.768560434388823</v>
+        <v>4.7685604343888226</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -3665,7 +3442,7 @@
         <v>2.652734202160191</v>
       </c>
       <c r="K9" s="4">
-        <v>5.54594867153973</v>
+        <v>5.5459486715397297</v>
       </c>
       <c r="L9" s="4">
         <v>3.301196700286952</v>
@@ -3674,19 +3451,19 @@
         <v>3.270835869035789</v>
       </c>
       <c r="N9" s="4">
-        <v>7.424153967658979</v>
+        <v>7.4241539676589792</v>
       </c>
       <c r="O9" s="4">
         <v>8.018197725803935</v>
       </c>
       <c r="P9" s="4">
-        <v>2.618542523627491</v>
+        <v>2.6185425236274908</v>
       </c>
       <c r="Q9" s="4">
-        <v>1.557271160163573</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>1.5572711601635729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3694,22 +3471,22 @@
         <v>3.894393018239223</v>
       </c>
       <c r="C10" s="4">
-        <v>2.748895674284989</v>
+        <v>2.7488956742849888</v>
       </c>
       <c r="D10" s="4">
-        <v>7.593501920604152</v>
+        <v>7.5935019206041519</v>
       </c>
       <c r="E10" s="4">
         <v>3.856832274364062</v>
       </c>
       <c r="F10" s="4">
-        <v>3.419498455674412</v>
+        <v>3.4194984556744119</v>
       </c>
       <c r="G10" s="4">
-        <v>2.763672438851342</v>
+        <v>2.7636724388513421</v>
       </c>
       <c r="H10" s="4">
-        <v>3.466036311555115</v>
+        <v>3.4660363115551149</v>
       </c>
       <c r="I10" s="4">
         <v>2.652734202160191</v>
@@ -3718,57 +3495,57 @@
         <v>0</v>
       </c>
       <c r="K10" s="4">
-        <v>6.11638240025328</v>
+        <v>6.1163824002532801</v>
       </c>
       <c r="L10" s="4">
-        <v>3.340876459125035</v>
+        <v>3.3408764591250351</v>
       </c>
       <c r="M10" s="4">
-        <v>1.818294927012153</v>
+        <v>1.8182949270121529</v>
       </c>
       <c r="N10" s="4">
-        <v>5.213798286699764</v>
+        <v>5.2137982866997641</v>
       </c>
       <c r="O10" s="4">
-        <v>6.25662076825317</v>
+        <v>6.2566207682531703</v>
       </c>
       <c r="P10" s="4">
-        <v>0.9313480700579838</v>
+        <v>0.93134807005798381</v>
       </c>
       <c r="Q10" s="4">
-        <v>1.64455300529232</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>1.6445530052923201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>7.024808225296545</v>
+        <v>7.0248082252965451</v>
       </c>
       <c r="C11" s="4">
-        <v>4.009487637661257</v>
+        <v>4.0094876376612572</v>
       </c>
       <c r="D11" s="4">
-        <v>7.934144439191736</v>
+        <v>7.9341444391917362</v>
       </c>
       <c r="E11" s="4">
         <v>2.731648011495373</v>
       </c>
       <c r="F11" s="4">
-        <v>2.768730578086091</v>
+        <v>2.7687305780860911</v>
       </c>
       <c r="G11" s="4">
-        <v>3.375921210409884</v>
+        <v>3.3759212104098841</v>
       </c>
       <c r="H11" s="4">
-        <v>3.918070984841904</v>
+        <v>3.9180709848419042</v>
       </c>
       <c r="I11" s="4">
-        <v>5.54594867153973</v>
+        <v>5.5459486715397297</v>
       </c>
       <c r="J11" s="4">
-        <v>6.11638240025328</v>
+        <v>6.1163824002532801</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -3777,51 +3554,51 @@
         <v>2.775949895556395</v>
       </c>
       <c r="M11" s="4">
-        <v>4.572620065620168</v>
+        <v>4.5726200656201677</v>
       </c>
       <c r="N11" s="4">
-        <v>6.858089369990579</v>
+        <v>6.8580893699905792</v>
       </c>
       <c r="O11" s="4">
-        <v>6.001186040338946</v>
+        <v>6.0011860403389461</v>
       </c>
       <c r="P11" s="4">
-        <v>5.211892041688455</v>
+        <v>5.2118920416884551</v>
       </c>
       <c r="Q11" s="4">
-        <v>4.802153270918875</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>4.8021532709188746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>4.927401014653253</v>
+        <v>4.9274010146532534</v>
       </c>
       <c r="C12" s="4">
         <v>1.7439933031151</v>
       </c>
       <c r="D12" s="4">
-        <v>7.124325987472782</v>
+        <v>7.1243259874727816</v>
       </c>
       <c r="E12" s="4">
-        <v>1.28182736922209</v>
+        <v>1.2818273692220901</v>
       </c>
       <c r="F12" s="4">
-        <v>0.4332861194575796</v>
+        <v>0.43328611945757961</v>
       </c>
       <c r="G12" s="4">
-        <v>0.63254275190891</v>
+        <v>0.63254275190890996</v>
       </c>
       <c r="H12" s="4">
-        <v>2.1008903621197</v>
+        <v>2.1008903621197001</v>
       </c>
       <c r="I12" s="4">
         <v>3.301196700286952</v>
       </c>
       <c r="J12" s="4">
-        <v>3.340876459125035</v>
+        <v>3.3408764591250351</v>
       </c>
       <c r="K12" s="4">
         <v>2.775949895556395</v>
@@ -3833,33 +3610,33 @@
         <v>1.894308967345776</v>
       </c>
       <c r="N12" s="4">
-        <v>5.327861027247652</v>
+        <v>5.3278610272476516</v>
       </c>
       <c r="O12" s="4">
         <v>5.270138508637161</v>
       </c>
       <c r="P12" s="4">
-        <v>2.437966253855903</v>
+        <v>2.4379662538559028</v>
       </c>
       <c r="Q12" s="4">
-        <v>2.148343617463628</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>2.1483436174636279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>3.345049272644019</v>
+        <v>3.3450492726440189</v>
       </c>
       <c r="C13" s="4">
-        <v>2.354056091164756</v>
+        <v>2.3540560911647561</v>
       </c>
       <c r="D13" s="4">
-        <v>6.377744660347846</v>
+        <v>6.3777446603478456</v>
       </c>
       <c r="E13" s="4">
-        <v>2.882097009430085</v>
+        <v>2.8820970094300851</v>
       </c>
       <c r="F13" s="4">
         <v>1.804417783176067</v>
@@ -3874,10 +3651,10 @@
         <v>3.270835869035789</v>
       </c>
       <c r="J13" s="4">
-        <v>1.818294927012153</v>
+        <v>1.8182949270121529</v>
       </c>
       <c r="K13" s="4">
-        <v>4.572620065620168</v>
+        <v>4.5726200656201677</v>
       </c>
       <c r="L13" s="4">
         <v>1.894308967345776</v>
@@ -3886,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="N13" s="4">
-        <v>4.189062371868906</v>
+        <v>4.1890623718689062</v>
       </c>
       <c r="O13" s="4">
-        <v>4.789451389927678</v>
+        <v>4.7894513899276783</v>
       </c>
       <c r="P13" s="4">
-        <v>0.9446471352227961</v>
+        <v>0.94464713522279609</v>
       </c>
       <c r="Q13" s="4">
         <v>1.714423255559544</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3906,57 +3683,57 @@
         <v>1.625553256344838</v>
       </c>
       <c r="C14" s="4">
-        <v>6.485397091144045</v>
+        <v>6.4853970911440451</v>
       </c>
       <c r="D14" s="4">
         <v>2.424990185152093</v>
       </c>
       <c r="E14" s="4">
-        <v>6.603381590430365</v>
+        <v>6.6033815904303648</v>
       </c>
       <c r="F14" s="4">
-        <v>4.946240816258711</v>
+        <v>4.9462408162587108</v>
       </c>
       <c r="G14" s="4">
-        <v>4.925815032077801</v>
+        <v>4.9258150320778009</v>
       </c>
       <c r="H14" s="4">
-        <v>3.243625069484449</v>
+        <v>3.2436250694844491</v>
       </c>
       <c r="I14" s="4">
-        <v>7.424153967658979</v>
+        <v>7.4241539676589792</v>
       </c>
       <c r="J14" s="4">
-        <v>5.213798286699764</v>
+        <v>5.2137982866997641</v>
       </c>
       <c r="K14" s="4">
-        <v>6.858089369990579</v>
+        <v>6.8580893699905792</v>
       </c>
       <c r="L14" s="4">
-        <v>5.327861027247652</v>
+        <v>5.3278610272476516</v>
       </c>
       <c r="M14" s="4">
-        <v>4.189062371868906</v>
+        <v>4.1890623718689062</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="4">
-        <v>1.901564421846763</v>
+        <v>1.9015644218467631</v>
       </c>
       <c r="P14" s="4">
         <v>4.836145163636199</v>
       </c>
       <c r="Q14" s="4">
-        <v>5.884761518585748</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>5.8847615185857478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>3.365120740908181</v>
+        <v>3.3651207409081811</v>
       </c>
       <c r="C15" s="4">
         <v>6.780620196920534</v>
@@ -3965,13 +3742,13 @@
         <v>1.9442304035956</v>
       </c>
       <c r="E15" s="4">
-        <v>6.519801958543647</v>
+        <v>6.5198019585436473</v>
       </c>
       <c r="F15" s="4">
-        <v>4.839866405259746</v>
+        <v>4.8398664052597464</v>
       </c>
       <c r="G15" s="4">
-        <v>5.072785727748026</v>
+        <v>5.0727857277480259</v>
       </c>
       <c r="H15" s="4">
         <v>3.28673182286414</v>
@@ -3980,31 +3757,31 @@
         <v>8.018197725803935</v>
       </c>
       <c r="J15" s="4">
-        <v>6.25662076825317</v>
+        <v>6.2566207682531703</v>
       </c>
       <c r="K15" s="4">
-        <v>6.001186040338946</v>
+        <v>6.0011860403389461</v>
       </c>
       <c r="L15" s="4">
         <v>5.270138508637161</v>
       </c>
       <c r="M15" s="4">
-        <v>4.789451389927678</v>
+        <v>4.7894513899276783</v>
       </c>
       <c r="N15" s="4">
-        <v>1.901564421846763</v>
+        <v>1.9015644218467631</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
       <c r="P15" s="4">
-        <v>5.640538314068089</v>
+        <v>5.6405383140680891</v>
       </c>
       <c r="Q15" s="4">
-        <v>6.470527360937612</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <v>6.4705273609376119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -4012,16 +3789,16 @@
         <v>3.736524559954018</v>
       </c>
       <c r="C16" s="4">
-        <v>2.170023620943011</v>
+        <v>2.1700236209430108</v>
       </c>
       <c r="D16" s="4">
-        <v>7.130016558461034</v>
+        <v>7.1300165584610342</v>
       </c>
       <c r="E16" s="4">
-        <v>3.094815296584793</v>
+        <v>3.0948152965847928</v>
       </c>
       <c r="F16" s="4">
-        <v>2.492737642571129</v>
+        <v>2.4927376425711292</v>
       </c>
       <c r="G16" s="4">
         <v>1.843374056134677</v>
@@ -4030,25 +3807,25 @@
         <v>2.640881313227418</v>
       </c>
       <c r="I16" s="4">
-        <v>2.618542523627491</v>
+        <v>2.6185425236274908</v>
       </c>
       <c r="J16" s="4">
-        <v>0.9313480700579838</v>
+        <v>0.93134807005798381</v>
       </c>
       <c r="K16" s="4">
-        <v>5.211892041688455</v>
+        <v>5.2118920416884551</v>
       </c>
       <c r="L16" s="4">
-        <v>2.437966253855903</v>
+        <v>2.4379662538559028</v>
       </c>
       <c r="M16" s="4">
-        <v>0.9446471352227961</v>
+        <v>0.94464713522279609</v>
       </c>
       <c r="N16" s="4">
         <v>4.836145163636199</v>
       </c>
       <c r="O16" s="4">
-        <v>5.640538314068089</v>
+        <v>5.6405383140680891</v>
       </c>
       <c r="P16" s="3">
         <v>0</v>
@@ -4057,15 +3834,15 @@
         <v>1.181661630492554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>4.890171634977857</v>
+        <v>4.8901716349778566</v>
       </c>
       <c r="C17" s="4">
-        <v>1.105327841684209</v>
+        <v>1.1053278416842089</v>
       </c>
       <c r="D17" s="4">
         <v>8.091682024887497</v>
@@ -4074,34 +3851,34 @@
         <v>2.294129746909932</v>
       </c>
       <c r="F17" s="4">
-        <v>2.401698199660838</v>
+        <v>2.4016981996608382</v>
       </c>
       <c r="G17" s="4">
-        <v>1.770638126117957</v>
+        <v>1.7706381261179569</v>
       </c>
       <c r="H17" s="4">
-        <v>3.248193667254791</v>
+        <v>3.2481936672547911</v>
       </c>
       <c r="I17" s="4">
-        <v>1.557271160163573</v>
+        <v>1.5572711601635729</v>
       </c>
       <c r="J17" s="4">
-        <v>1.64455300529232</v>
+        <v>1.6445530052923201</v>
       </c>
       <c r="K17" s="4">
-        <v>4.802153270918875</v>
+        <v>4.8021532709188746</v>
       </c>
       <c r="L17" s="4">
-        <v>2.148343617463628</v>
+        <v>2.1483436174636279</v>
       </c>
       <c r="M17" s="4">
         <v>1.714423255559544</v>
       </c>
       <c r="N17" s="4">
-        <v>5.884761518585748</v>
+        <v>5.8847615185857478</v>
       </c>
       <c r="O17" s="4">
-        <v>6.470527360937612</v>
+        <v>6.4705273609376119</v>
       </c>
       <c r="P17" s="4">
         <v>1.181661630492554</v>
@@ -4116,36 +3893,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:Q35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4198,7 +3963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4206,40 +3971,40 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>2.732498790932033</v>
+        <v>2.7324987909320329</v>
       </c>
       <c r="D2" s="4">
-        <v>1.924409882259681</v>
+        <v>1.9244098822596809</v>
       </c>
       <c r="E2" s="4">
-        <v>2.937844229973971</v>
+        <v>2.9378442299739711</v>
       </c>
       <c r="F2" s="4">
-        <v>2.222495964095167</v>
+        <v>2.2224959640951671</v>
       </c>
       <c r="G2" s="4">
-        <v>2.108188696026522</v>
+        <v>2.1081886960265219</v>
       </c>
       <c r="H2" s="4">
         <v>1.493356602401154</v>
       </c>
       <c r="I2" s="4">
-        <v>3.047245360133168</v>
+        <v>3.0472453601331679</v>
       </c>
       <c r="J2" s="4">
-        <v>1.869308648754827</v>
+        <v>1.8693086487548269</v>
       </c>
       <c r="K2" s="4">
-        <v>3.371907948142342</v>
+        <v>3.3719079481423422</v>
       </c>
       <c r="L2" s="4">
-        <v>2.365152487033561</v>
+        <v>2.3651524870335612</v>
       </c>
       <c r="M2" s="4">
-        <v>1.605623650869129</v>
+        <v>1.6056236508691291</v>
       </c>
       <c r="N2" s="4">
-        <v>0.7802655630455224</v>
+        <v>0.78026556304552241</v>
       </c>
       <c r="O2" s="4">
         <v>1.615257955635927</v>
@@ -4248,21 +4013,21 @@
         <v>1.793531788777929</v>
       </c>
       <c r="Q2" s="4">
-        <v>2.347282384789371</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>2.3472823847893709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>2.732498790932033</v>
+        <v>2.7324987909320329</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>4.097174869065803</v>
+        <v>4.0971748690658032</v>
       </c>
       <c r="E3" s="4">
         <v>0.6327338477272908</v>
@@ -4277,66 +4042,66 @@
         <v>1.677720400574265</v>
       </c>
       <c r="I3" s="4">
-        <v>0.7651669687530056</v>
+        <v>0.76516696875300561</v>
       </c>
       <c r="J3" s="4">
-        <v>1.319469923656795</v>
+        <v>1.3194699236567951</v>
       </c>
       <c r="K3" s="4">
-        <v>1.924554066077404</v>
+        <v>1.9245540660774041</v>
       </c>
       <c r="L3" s="4">
-        <v>0.8371167854952478</v>
+        <v>0.83711678549524782</v>
       </c>
       <c r="M3" s="4">
-        <v>1.129946923759083</v>
+        <v>1.1299469237590829</v>
       </c>
       <c r="N3" s="4">
-        <v>3.112990603749141</v>
+        <v>3.1129906037491408</v>
       </c>
       <c r="O3" s="4">
-        <v>3.254697694521856</v>
+        <v>3.2546976945218562</v>
       </c>
       <c r="P3" s="4">
-        <v>1.041611338052645</v>
+        <v>1.0416113380526451</v>
       </c>
       <c r="Q3" s="4">
-        <v>0.5305573640084205</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>0.53055736400842046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>1.924409882259681</v>
+        <v>1.9244098822596809</v>
       </c>
       <c r="C4" s="4">
-        <v>4.097174869065803</v>
+        <v>4.0971748690658032</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>4.028725756520965</v>
+        <v>4.0287257565209647</v>
       </c>
       <c r="F4" s="4">
         <v>3.216494023046407</v>
       </c>
       <c r="G4" s="4">
-        <v>3.293211491116611</v>
+        <v>3.2932114911166108</v>
       </c>
       <c r="H4" s="4">
-        <v>2.431065788421302</v>
+        <v>2.4310657884213018</v>
       </c>
       <c r="I4" s="4">
-        <v>4.631305764991239</v>
+        <v>4.6313057649912386</v>
       </c>
       <c r="J4" s="4">
-        <v>3.644880921889993</v>
+        <v>3.6448809218899929</v>
       </c>
       <c r="K4" s="4">
-        <v>3.808389330812033</v>
+        <v>3.8083893308120329</v>
       </c>
       <c r="L4" s="4">
         <v>3.419676473986935</v>
@@ -4348,74 +4113,74 @@
         <v>1.163995288873005</v>
       </c>
       <c r="O4" s="4">
-        <v>0.9332305937258882</v>
+        <v>0.93323059372588824</v>
       </c>
       <c r="P4" s="4">
-        <v>3.422407948061296</v>
+        <v>3.4224079480612959</v>
       </c>
       <c r="Q4" s="4">
         <v>3.884007371945998</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>2.937844229973971</v>
+        <v>2.9378442299739711</v>
       </c>
       <c r="C5" s="4">
         <v>0.6327338477272908</v>
       </c>
       <c r="D5" s="4">
-        <v>4.028725756520965</v>
+        <v>4.0287257565209647</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>0.813051222387667</v>
+        <v>0.81305122238766703</v>
       </c>
       <c r="G5" s="4">
-        <v>0.8302775643341462</v>
+        <v>0.83027756433414623</v>
       </c>
       <c r="H5" s="4">
         <v>1.623675326010678</v>
       </c>
       <c r="I5" s="4">
-        <v>1.350941540043826</v>
+        <v>1.3509415400438261</v>
       </c>
       <c r="J5" s="4">
-        <v>1.85127949169475</v>
+        <v>1.8512794916947499</v>
       </c>
       <c r="K5" s="4">
-        <v>1.311191045517779</v>
+        <v>1.3111910455177791</v>
       </c>
       <c r="L5" s="4">
-        <v>0.6152771372266032</v>
+        <v>0.61527713722660315</v>
       </c>
       <c r="M5" s="4">
-        <v>1.383406564526441</v>
+        <v>1.3834065645264411</v>
       </c>
       <c r="N5" s="4">
         <v>3.169623163406575</v>
       </c>
       <c r="O5" s="4">
-        <v>3.129504940100951</v>
+        <v>3.1295049401009511</v>
       </c>
       <c r="P5" s="4">
-        <v>1.485511342360701</v>
+        <v>1.4855113423607009</v>
       </c>
       <c r="Q5" s="4">
-        <v>1.101182278516767</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>1.1011822785167671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>2.222495964095167</v>
+        <v>2.2224959640951671</v>
       </c>
       <c r="C6" s="4">
         <v>1.025469199103809</v>
@@ -4424,16 +4189,16 @@
         <v>3.216494023046407</v>
       </c>
       <c r="E6" s="4">
-        <v>0.813051222387667</v>
+        <v>0.81305122238766703</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>0.3205486436333436</v>
+        <v>0.32054864363334362</v>
       </c>
       <c r="H6" s="4">
-        <v>0.818508264580195</v>
+        <v>0.81850826458019499</v>
       </c>
       <c r="I6" s="4">
         <v>1.756885476052723</v>
@@ -4445,48 +4210,48 @@
         <v>1.328990677481324</v>
       </c>
       <c r="L6" s="4">
-        <v>0.2079773373396382</v>
+        <v>0.20797733733963819</v>
       </c>
       <c r="M6" s="4">
-        <v>0.8661205359245123</v>
+        <v>0.86612053592451232</v>
       </c>
       <c r="N6" s="4">
         <v>2.374195591804181</v>
       </c>
       <c r="O6" s="4">
-        <v>2.323135874524678</v>
+        <v>2.3231358745246782</v>
       </c>
       <c r="P6" s="4">
         <v>1.196514068434142</v>
       </c>
       <c r="Q6" s="4">
-        <v>1.152815135837202</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>1.1528151358372021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>2.108188696026522</v>
+        <v>2.1081886960265219</v>
       </c>
       <c r="C7" s="4">
         <v>0.8240030107748888</v>
       </c>
       <c r="D7" s="4">
-        <v>3.293211491116611</v>
+        <v>3.2932114911166108</v>
       </c>
       <c r="E7" s="4">
-        <v>0.8302775643341462</v>
+        <v>0.83027756433414623</v>
       </c>
       <c r="F7" s="4">
-        <v>0.3205486436333436</v>
+        <v>0.32054864363334362</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>0.8629626217471192</v>
+        <v>0.86296262174711924</v>
       </c>
       <c r="I7" s="4">
         <v>1.502194285389941</v>
@@ -4498,25 +4263,25 @@
         <v>1.620442180996744</v>
       </c>
       <c r="L7" s="4">
-        <v>0.3036205209162768</v>
+        <v>0.30362052091627678</v>
       </c>
       <c r="M7" s="4">
-        <v>0.6064853969485163</v>
+        <v>0.60648539694851633</v>
       </c>
       <c r="N7" s="4">
-        <v>2.364391215397344</v>
+        <v>2.3643912153973439</v>
       </c>
       <c r="O7" s="4">
-        <v>2.434937149319052</v>
+        <v>2.4349371493190519</v>
       </c>
       <c r="P7" s="4">
-        <v>0.8848195469446448</v>
+        <v>0.88481954694464482</v>
       </c>
       <c r="Q7" s="4">
-        <v>0.8499063005366194</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>0.84990630053661942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4527,63 +4292,63 @@
         <v>1.677720400574265</v>
       </c>
       <c r="D8" s="4">
-        <v>2.431065788421302</v>
+        <v>2.4310657884213018</v>
       </c>
       <c r="E8" s="4">
         <v>1.623675326010678</v>
       </c>
       <c r="F8" s="4">
-        <v>0.818508264580195</v>
+        <v>0.81850826458019499</v>
       </c>
       <c r="G8" s="4">
-        <v>0.8629626217471192</v>
+        <v>0.86296262174711924</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>2.288909008506636</v>
+        <v>2.2889090085066361</v>
       </c>
       <c r="J8" s="4">
-        <v>1.663697429546455</v>
+        <v>1.6636974295464551</v>
       </c>
       <c r="K8" s="4">
         <v>1.880674072724114</v>
       </c>
       <c r="L8" s="4">
-        <v>1.008427373817456</v>
+        <v>1.0084273738174561</v>
       </c>
       <c r="M8" s="4">
-        <v>0.8155107059604049</v>
+        <v>0.81551070596040487</v>
       </c>
       <c r="N8" s="4">
-        <v>1.556940033352535</v>
+        <v>1.5569400333525349</v>
       </c>
       <c r="O8" s="4">
-        <v>1.577631274974787</v>
+        <v>1.5776312749747869</v>
       </c>
       <c r="P8" s="4">
-        <v>1.267623030349161</v>
+        <v>1.2676230303491609</v>
       </c>
       <c r="Q8" s="4">
-        <v>1.5591329602823</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>1.5591329602823001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>3.047245360133168</v>
+        <v>3.0472453601331679</v>
       </c>
       <c r="C9" s="4">
-        <v>0.7651669687530056</v>
+        <v>0.76516696875300561</v>
       </c>
       <c r="D9" s="4">
-        <v>4.631305764991239</v>
+        <v>4.6313057649912386</v>
       </c>
       <c r="E9" s="4">
-        <v>1.350941540043826</v>
+        <v>1.3509415400438261</v>
       </c>
       <c r="F9" s="4">
         <v>1.756885476052723</v>
@@ -4592,7 +4357,7 @@
         <v>1.502194285389941</v>
       </c>
       <c r="H9" s="4">
-        <v>2.288909008506636</v>
+        <v>2.2889090085066361</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -4601,42 +4366,42 @@
         <v>1.273312417036891</v>
       </c>
       <c r="K9" s="4">
-        <v>2.66205536233907</v>
+        <v>2.6620553623390699</v>
       </c>
       <c r="L9" s="4">
-        <v>1.584574416137737</v>
+        <v>1.5845744161377371</v>
       </c>
       <c r="M9" s="4">
-        <v>1.570001217137179</v>
+        <v>1.5700012171371791</v>
       </c>
       <c r="N9" s="4">
-        <v>3.56359390447631</v>
+        <v>3.5635939044763099</v>
       </c>
       <c r="O9" s="4">
-        <v>3.848734908385889</v>
+        <v>3.8487349083858891</v>
       </c>
       <c r="P9" s="4">
-        <v>1.256900411341196</v>
+        <v>1.2569004113411959</v>
       </c>
       <c r="Q9" s="4">
-        <v>0.7474901568785153</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>0.74749015687851528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>1.869308648754827</v>
+        <v>1.8693086487548269</v>
       </c>
       <c r="C10" s="4">
-        <v>1.319469923656795</v>
+        <v>1.3194699236567951</v>
       </c>
       <c r="D10" s="4">
-        <v>3.644880921889993</v>
+        <v>3.6448809218899929</v>
       </c>
       <c r="E10" s="4">
-        <v>1.85127949169475</v>
+        <v>1.8512794916947499</v>
       </c>
       <c r="F10" s="4">
         <v>1.641359258723718</v>
@@ -4645,7 +4410,7 @@
         <v>1.326562770648644</v>
       </c>
       <c r="H10" s="4">
-        <v>1.663697429546455</v>
+        <v>1.6636974295464551</v>
       </c>
       <c r="I10" s="4">
         <v>1.273312417036891</v>
@@ -4654,42 +4419,42 @@
         <v>0</v>
       </c>
       <c r="K10" s="4">
-        <v>2.935863552121574</v>
+        <v>2.9358635521215741</v>
       </c>
       <c r="L10" s="4">
-        <v>1.603620700380017</v>
+        <v>1.6036207003800169</v>
       </c>
       <c r="M10" s="4">
-        <v>0.8727815649658336</v>
+        <v>0.87278156496583359</v>
       </c>
       <c r="N10" s="4">
-        <v>2.502623177615887</v>
+        <v>2.5026231776158872</v>
       </c>
       <c r="O10" s="4">
-        <v>3.003177968761522</v>
+        <v>3.0031779687615221</v>
       </c>
       <c r="P10" s="4">
-        <v>0.4470470736278322</v>
+        <v>0.44704707362783219</v>
       </c>
       <c r="Q10" s="4">
-        <v>0.7893854425403135</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>0.78938544254031351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>3.371907948142342</v>
+        <v>3.3719079481423422</v>
       </c>
       <c r="C11" s="4">
-        <v>1.924554066077404</v>
+        <v>1.9245540660774041</v>
       </c>
       <c r="D11" s="4">
-        <v>3.808389330812033</v>
+        <v>3.8083893308120329</v>
       </c>
       <c r="E11" s="4">
-        <v>1.311191045517779</v>
+        <v>1.3111910455177791</v>
       </c>
       <c r="F11" s="4">
         <v>1.328990677481324</v>
@@ -4701,66 +4466,66 @@
         <v>1.880674072724114</v>
       </c>
       <c r="I11" s="4">
-        <v>2.66205536233907</v>
+        <v>2.6620553623390699</v>
       </c>
       <c r="J11" s="4">
-        <v>2.935863552121574</v>
+        <v>2.9358635521215741</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
       </c>
       <c r="L11" s="4">
-        <v>1.332455949867069</v>
+        <v>1.3324559498670689</v>
       </c>
       <c r="M11" s="4">
-        <v>2.19485763149768</v>
+        <v>2.1948576314976802</v>
       </c>
       <c r="N11" s="4">
-        <v>3.291882897595478</v>
+        <v>3.2918828975954781</v>
       </c>
       <c r="O11" s="4">
-        <v>2.880569299362694</v>
+        <v>2.8805692993626941</v>
       </c>
       <c r="P11" s="4">
-        <v>2.501708180010458</v>
+        <v>2.5017081800104579</v>
       </c>
       <c r="Q11" s="4">
         <v>2.30503357004106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>2.365152487033561</v>
+        <v>2.3651524870335612</v>
       </c>
       <c r="C12" s="4">
-        <v>0.8371167854952478</v>
+        <v>0.83711678549524782</v>
       </c>
       <c r="D12" s="4">
         <v>3.419676473986935</v>
       </c>
       <c r="E12" s="4">
-        <v>0.6152771372266032</v>
+        <v>0.61527713722660315</v>
       </c>
       <c r="F12" s="4">
-        <v>0.2079773373396382</v>
+        <v>0.20797733733963819</v>
       </c>
       <c r="G12" s="4">
-        <v>0.3036205209162768</v>
+        <v>0.30362052091627678</v>
       </c>
       <c r="H12" s="4">
-        <v>1.008427373817456</v>
+        <v>1.0084273738174561</v>
       </c>
       <c r="I12" s="4">
-        <v>1.584574416137737</v>
+        <v>1.5845744161377371</v>
       </c>
       <c r="J12" s="4">
-        <v>1.603620700380017</v>
+        <v>1.6036207003800169</v>
       </c>
       <c r="K12" s="4">
-        <v>1.332455949867069</v>
+        <v>1.3324559498670689</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -4769,51 +4534,51 @@
         <v>0.9092683043259725</v>
       </c>
       <c r="N12" s="4">
-        <v>2.557373293078873</v>
+        <v>2.5573732930788728</v>
       </c>
       <c r="O12" s="4">
-        <v>2.529666484145837</v>
+        <v>2.5296664841458369</v>
       </c>
       <c r="P12" s="4">
-        <v>1.170223801850833</v>
+        <v>1.1702238018508331</v>
       </c>
       <c r="Q12" s="4">
         <v>1.031204936382542</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>1.605623650869129</v>
+        <v>1.6056236508691291</v>
       </c>
       <c r="C13" s="4">
-        <v>1.129946923759083</v>
+        <v>1.1299469237590829</v>
       </c>
       <c r="D13" s="4">
         <v>3.061317436966966</v>
       </c>
       <c r="E13" s="4">
-        <v>1.383406564526441</v>
+        <v>1.3834065645264411</v>
       </c>
       <c r="F13" s="4">
-        <v>0.8661205359245123</v>
+        <v>0.86612053592451232</v>
       </c>
       <c r="G13" s="4">
-        <v>0.6064853969485163</v>
+        <v>0.60648539694851633</v>
       </c>
       <c r="H13" s="4">
-        <v>0.8155107059604049</v>
+        <v>0.81551070596040487</v>
       </c>
       <c r="I13" s="4">
-        <v>1.570001217137179</v>
+        <v>1.5700012171371791</v>
       </c>
       <c r="J13" s="4">
-        <v>0.8727815649658336</v>
+        <v>0.87278156496583359</v>
       </c>
       <c r="K13" s="4">
-        <v>2.19485763149768</v>
+        <v>2.1948576314976802</v>
       </c>
       <c r="L13" s="4">
         <v>0.9092683043259725</v>
@@ -4822,27 +4587,27 @@
         <v>0</v>
       </c>
       <c r="N13" s="4">
-        <v>2.010749938497075</v>
+        <v>2.0107499384970748</v>
       </c>
       <c r="O13" s="4">
         <v>2.298936667165286</v>
       </c>
       <c r="P13" s="4">
-        <v>0.4534306249069421</v>
+        <v>0.45343062490694208</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.8229231626685813</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>0.82292316266858134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>0.7802655630455224</v>
+        <v>0.78026556304552241</v>
       </c>
       <c r="C14" s="4">
-        <v>3.112990603749141</v>
+        <v>3.1129906037491408</v>
       </c>
       <c r="D14" s="4">
         <v>1.163995288873005</v>
@@ -4854,25 +4619,25 @@
         <v>2.374195591804181</v>
       </c>
       <c r="G14" s="4">
-        <v>2.364391215397344</v>
+        <v>2.3643912153973439</v>
       </c>
       <c r="H14" s="4">
-        <v>1.556940033352535</v>
+        <v>1.5569400333525349</v>
       </c>
       <c r="I14" s="4">
-        <v>3.56359390447631</v>
+        <v>3.5635939044763099</v>
       </c>
       <c r="J14" s="4">
-        <v>2.502623177615887</v>
+        <v>2.5026231776158872</v>
       </c>
       <c r="K14" s="4">
-        <v>3.291882897595478</v>
+        <v>3.2918828975954781</v>
       </c>
       <c r="L14" s="4">
-        <v>2.557373293078873</v>
+        <v>2.5573732930788728</v>
       </c>
       <c r="M14" s="4">
-        <v>2.010749938497075</v>
+        <v>2.0107499384970748</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -4887,7 +4652,7 @@
         <v>2.824685528921159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -4895,34 +4660,34 @@
         <v>1.615257955635927</v>
       </c>
       <c r="C15" s="4">
-        <v>3.254697694521856</v>
+        <v>3.2546976945218562</v>
       </c>
       <c r="D15" s="4">
-        <v>0.9332305937258882</v>
+        <v>0.93323059372588824</v>
       </c>
       <c r="E15" s="4">
-        <v>3.129504940100951</v>
+        <v>3.1295049401009511</v>
       </c>
       <c r="F15" s="4">
-        <v>2.323135874524678</v>
+        <v>2.3231358745246782</v>
       </c>
       <c r="G15" s="4">
-        <v>2.434937149319052</v>
+        <v>2.4349371493190519</v>
       </c>
       <c r="H15" s="4">
-        <v>1.577631274974787</v>
+        <v>1.5776312749747869</v>
       </c>
       <c r="I15" s="4">
-        <v>3.848734908385889</v>
+        <v>3.8487349083858891</v>
       </c>
       <c r="J15" s="4">
-        <v>3.003177968761522</v>
+        <v>3.0031779687615221</v>
       </c>
       <c r="K15" s="4">
-        <v>2.880569299362694</v>
+        <v>2.8805692993626941</v>
       </c>
       <c r="L15" s="4">
-        <v>2.529666484145837</v>
+        <v>2.5296664841458369</v>
       </c>
       <c r="M15" s="4">
         <v>2.298936667165286</v>
@@ -4937,10 +4702,10 @@
         <v>2.707458390752683</v>
       </c>
       <c r="Q15" s="4">
-        <v>3.105853133250054</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <v>3.1058531332500539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -4948,37 +4713,37 @@
         <v>1.793531788777929</v>
       </c>
       <c r="C16" s="4">
-        <v>1.041611338052645</v>
+        <v>1.0416113380526451</v>
       </c>
       <c r="D16" s="4">
-        <v>3.422407948061296</v>
+        <v>3.4224079480612959</v>
       </c>
       <c r="E16" s="4">
-        <v>1.485511342360701</v>
+        <v>1.4855113423607009</v>
       </c>
       <c r="F16" s="4">
         <v>1.196514068434142</v>
       </c>
       <c r="G16" s="4">
-        <v>0.8848195469446448</v>
+        <v>0.88481954694464482</v>
       </c>
       <c r="H16" s="4">
-        <v>1.267623030349161</v>
+        <v>1.2676230303491609</v>
       </c>
       <c r="I16" s="4">
-        <v>1.256900411341196</v>
+        <v>1.2569004113411959</v>
       </c>
       <c r="J16" s="4">
-        <v>0.4470470736278322</v>
+        <v>0.44704707362783219</v>
       </c>
       <c r="K16" s="4">
-        <v>2.501708180010458</v>
+        <v>2.5017081800104579</v>
       </c>
       <c r="L16" s="4">
-        <v>1.170223801850833</v>
+        <v>1.1702238018508331</v>
       </c>
       <c r="M16" s="4">
-        <v>0.4534306249069421</v>
+        <v>0.45343062490694208</v>
       </c>
       <c r="N16" s="4">
         <v>2.321349678545376</v>
@@ -4990,39 +4755,39 @@
         <v>0</v>
       </c>
       <c r="Q16" s="4">
-        <v>0.5671975826364258</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>0.56719758263642583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>2.347282384789371</v>
+        <v>2.3472823847893709</v>
       </c>
       <c r="C17" s="4">
-        <v>0.5305573640084205</v>
+        <v>0.53055736400842046</v>
       </c>
       <c r="D17" s="4">
         <v>3.884007371945998</v>
       </c>
       <c r="E17" s="4">
-        <v>1.101182278516767</v>
+        <v>1.1011822785167671</v>
       </c>
       <c r="F17" s="4">
-        <v>1.152815135837202</v>
+        <v>1.1528151358372021</v>
       </c>
       <c r="G17" s="4">
-        <v>0.8499063005366194</v>
+        <v>0.84990630053661942</v>
       </c>
       <c r="H17" s="4">
-        <v>1.5591329602823</v>
+        <v>1.5591329602823001</v>
       </c>
       <c r="I17" s="4">
-        <v>0.7474901568785153</v>
+        <v>0.74749015687851528</v>
       </c>
       <c r="J17" s="4">
-        <v>0.7893854425403135</v>
+        <v>0.78938544254031351</v>
       </c>
       <c r="K17" s="4">
         <v>2.30503357004106</v>
@@ -5031,16 +4796,16 @@
         <v>1.031204936382542</v>
       </c>
       <c r="M17" s="4">
-        <v>0.8229231626685813</v>
+        <v>0.82292316266858134</v>
       </c>
       <c r="N17" s="4">
         <v>2.824685528921159</v>
       </c>
       <c r="O17" s="4">
-        <v>3.105853133250054</v>
+        <v>3.1058531332500539</v>
       </c>
       <c r="P17" s="4">
-        <v>0.5671975826364258</v>
+        <v>0.56719758263642583</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
